--- a/Clean data sheets/Adult respiration.xlsx
+++ b/Clean data sheets/Adult respiration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21-Sp22)/Clean data sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21–Sp22)/Clean data sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22542A2-E195-774C-A92A-09E7AABC38AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7115AE7-06B0-4846-80DE-38555D81B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14240" xr2:uid="{D25378DD-AF50-DC45-90E9-FDC5868AAAC4}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Resp_rate</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Acidic</t>
+  </si>
+  <si>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -426,10 +426,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3.5007999999999999</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3.6196000000000002</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3.1612</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>5.6475999999999997</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>4.8887999999999998</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>2.5884</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>2.1072000000000002</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>2.8391999999999999</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>2.6036000000000001</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>4.3520000000000003</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>4.4953000000000003</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>2.5945</v>
@@ -558,10 +558,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>5.3189000000000002</v>
@@ -569,10 +569,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>9.3720999999999997</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>7.0853000000000002</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>3.1677</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>3.4241000000000001</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>6.9229000000000003</v>
